--- a/rider/weekly/2016_36.xlsx
+++ b/rider/weekly/2016_36.xlsx
@@ -186,13 +186,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>221</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>248</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>230</c:v>
+                  <c:v>239</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>216</c:v>
@@ -201,7 +201,7 @@
                   <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -256,22 +256,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>104.67</c:v>
+                  <c:v>104.41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>110.53</c:v>
+                  <c:v>109.81</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>108.6</c:v>
+                  <c:v>108.21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>104.64</c:v>
+                  <c:v>104.92</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49.45</c:v>
+                  <c:v>49.59</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.1</c:v>
+                  <c:v>38.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -786,10 +786,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D2">
-        <v>104.67</v>
+        <v>104.41</v>
       </c>
       <c r="E2">
         <v>79.46</v>
@@ -803,10 +803,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="D3">
-        <v>110.53</v>
+        <v>109.81</v>
       </c>
       <c r="E3">
         <v>79.62</v>
@@ -820,10 +820,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="D4">
-        <v>108.6</v>
+        <v>108.21</v>
       </c>
       <c r="E4">
         <v>79.78</v>
@@ -840,7 +840,7 @@
         <v>216</v>
       </c>
       <c r="D5">
-        <v>104.64</v>
+        <v>104.92</v>
       </c>
       <c r="E5">
         <v>79.94</v>
@@ -857,7 +857,7 @@
         <v>86</v>
       </c>
       <c r="D6">
-        <v>49.45</v>
+        <v>49.59</v>
       </c>
       <c r="E6">
         <v>80.1</v>
@@ -871,10 +871,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7">
-        <v>38.1</v>
+        <v>38.13</v>
       </c>
       <c r="E7">
         <v>80.27</v>

--- a/rider/weekly/2016_36.xlsx
+++ b/rider/weekly/2016_36.xlsx
@@ -186,19 +186,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>213</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>256</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>239</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>216</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>86</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>74</c:v>
@@ -256,22 +256,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>104.41</c:v>
+                  <c:v>103.98</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>109.81</c:v>
+                  <c:v>109.74</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>108.21</c:v>
+                  <c:v>108.45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>104.92</c:v>
+                  <c:v>104.88</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49.59</c:v>
+                  <c:v>49.37</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.13</c:v>
+                  <c:v>38.19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -786,10 +786,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D2">
-        <v>104.41</v>
+        <v>103.98</v>
       </c>
       <c r="E2">
         <v>79.46</v>
@@ -803,10 +803,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="D3">
-        <v>109.81</v>
+        <v>109.74</v>
       </c>
       <c r="E3">
         <v>79.62</v>
@@ -820,10 +820,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="D4">
-        <v>108.21</v>
+        <v>108.45</v>
       </c>
       <c r="E4">
         <v>79.78</v>
@@ -837,10 +837,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D5">
-        <v>104.92</v>
+        <v>104.88</v>
       </c>
       <c r="E5">
         <v>79.94</v>
@@ -854,10 +854,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6">
-        <v>49.59</v>
+        <v>49.37</v>
       </c>
       <c r="E6">
         <v>80.1</v>
@@ -874,7 +874,7 @@
         <v>74</v>
       </c>
       <c r="D7">
-        <v>38.13</v>
+        <v>38.19</v>
       </c>
       <c r="E7">
         <v>80.27</v>

--- a/rider/weekly/2016_36.xlsx
+++ b/rider/weekly/2016_36.xlsx
@@ -186,22 +186,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -256,22 +256,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>103.98</c:v>
+                  <c:v>104.09</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>109.74</c:v>
+                  <c:v>109.64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>108.45</c:v>
+                  <c:v>108.23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>104.88</c:v>
+                  <c:v>104.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49.37</c:v>
+                  <c:v>49.59</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.19</c:v>
+                  <c:v>38.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -786,10 +786,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="D2">
-        <v>103.98</v>
+        <v>104.09</v>
       </c>
       <c r="E2">
         <v>79.46</v>
@@ -803,10 +803,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="D3">
-        <v>109.74</v>
+        <v>109.64</v>
       </c>
       <c r="E3">
         <v>79.62</v>
@@ -820,10 +820,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D4">
-        <v>108.45</v>
+        <v>108.23</v>
       </c>
       <c r="E4">
         <v>79.78</v>
@@ -837,10 +837,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D5">
-        <v>104.88</v>
+        <v>104.9</v>
       </c>
       <c r="E5">
         <v>79.94</v>
@@ -857,7 +857,7 @@
         <v>85</v>
       </c>
       <c r="D6">
-        <v>49.37</v>
+        <v>49.59</v>
       </c>
       <c r="E6">
         <v>80.1</v>
@@ -871,10 +871,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7">
-        <v>38.19</v>
+        <v>38.13</v>
       </c>
       <c r="E7">
         <v>80.27</v>
